--- a/storage/archivos/Libro1.xlsx
+++ b/storage/archivos/Libro1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiefer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiefercg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3347,9 +3347,6 @@
     <t>GUZMAN NUÑEZ</t>
   </si>
   <si>
-    <t>CHARLY DANIEL</t>
-  </si>
-  <si>
     <t>ARIA</t>
   </si>
   <si>
@@ -3360,12 +3357,15 @@
   </si>
   <si>
     <t>ESP-100</t>
+  </si>
+  <si>
+    <t>Hector canario L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3743,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B373" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E375" sqref="E375"/>
+    <sheetView tabSelected="1" topLeftCell="B375" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,7 +3855,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>33</v>
@@ -3934,7 +3934,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>33</v>
@@ -4013,7 +4013,7 @@
         <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>33</v>
@@ -4092,7 +4092,7 @@
         <v>51</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>33</v>
@@ -4171,7 +4171,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>33</v>
@@ -4410,7 +4410,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>33</v>
@@ -4489,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>33</v>
@@ -4728,7 +4728,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>33</v>
@@ -4807,7 +4807,7 @@
         <v>99</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>33</v>
@@ -4965,7 +4965,7 @@
         <v>110</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>33</v>
@@ -5044,7 +5044,7 @@
         <v>114</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>33</v>
@@ -5360,7 +5360,7 @@
         <v>110</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>33</v>
@@ -5518,7 +5518,7 @@
         <v>138</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>33</v>
@@ -5678,7 +5678,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>33</v>
@@ -5838,7 +5838,7 @@
         <v>159</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>33</v>
@@ -5917,7 +5917,7 @@
         <v>110</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>33</v>
@@ -5996,7 +5996,7 @@
         <v>110</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>33</v>
@@ -6075,7 +6075,7 @@
         <v>110</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>33</v>
@@ -6391,7 +6391,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>33</v>
@@ -6470,7 +6470,7 @@
         <v>114</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>33</v>
@@ -6628,7 +6628,7 @@
         <v>137</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>33</v>
@@ -6707,7 +6707,7 @@
         <v>137</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>33</v>
@@ -6944,7 +6944,7 @@
         <v>31</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>33</v>
@@ -7181,7 +7181,7 @@
         <v>51</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>33</v>
@@ -7260,7 +7260,7 @@
         <v>224</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>33</v>
@@ -7497,7 +7497,7 @@
         <v>235</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>33</v>
@@ -7576,7 +7576,7 @@
         <v>224</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>33</v>
@@ -7632,7 +7632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>13930</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>244</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>33</v>
@@ -7892,7 +7892,7 @@
         <v>255</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>33</v>
@@ -8050,7 +8050,7 @@
         <v>32</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>33</v>
@@ -8129,7 +8129,7 @@
         <v>267</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>33</v>
@@ -8208,7 +8208,7 @@
         <v>267</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>33</v>
@@ -8287,7 +8287,7 @@
         <v>137</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>33</v>
@@ -8445,7 +8445,7 @@
         <v>282</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>33</v>
@@ -8603,7 +8603,7 @@
         <v>289</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>33</v>
@@ -8682,7 +8682,7 @@
         <v>51</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>33</v>
@@ -8761,7 +8761,7 @@
         <v>282</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>33</v>
@@ -8919,7 +8919,7 @@
         <v>303</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>33</v>
@@ -8998,7 +8998,7 @@
         <v>46</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>33</v>
@@ -9077,7 +9077,7 @@
         <v>137</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>33</v>
@@ -9235,7 +9235,7 @@
         <v>32</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>33</v>
@@ -9709,7 +9709,7 @@
         <v>32</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>33</v>
@@ -10262,7 +10262,7 @@
         <v>32</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>33</v>
@@ -10499,7 +10499,7 @@
         <v>31</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>33</v>
@@ -10657,7 +10657,7 @@
         <v>104</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>33</v>
@@ -10815,7 +10815,7 @@
         <v>45</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>33</v>
@@ -11605,7 +11605,7 @@
         <v>31</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>33</v>
@@ -11684,7 +11684,7 @@
         <v>133</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>33</v>
@@ -11921,7 +11921,7 @@
         <v>333</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>33</v>
@@ -12079,7 +12079,7 @@
         <v>421</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>33</v>
@@ -12158,7 +12158,7 @@
         <v>45</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>33</v>
@@ -12395,7 +12395,7 @@
         <v>133</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>33</v>
@@ -12632,7 +12632,7 @@
         <v>421</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>33</v>
@@ -12711,7 +12711,7 @@
         <v>32</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>33</v>
@@ -12790,7 +12790,7 @@
         <v>32</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>33</v>
@@ -12869,7 +12869,7 @@
         <v>104</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>33</v>
@@ -13027,7 +13027,7 @@
         <v>421</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>33</v>
@@ -13185,7 +13185,7 @@
         <v>255</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>33</v>
@@ -13264,7 +13264,7 @@
         <v>31</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>33</v>
@@ -13501,7 +13501,7 @@
         <v>39</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>33</v>
@@ -13659,7 +13659,7 @@
         <v>31</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>33</v>
@@ -13896,7 +13896,7 @@
         <v>289</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>33</v>
@@ -14133,7 +14133,7 @@
         <v>355</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>33</v>
@@ -14212,7 +14212,7 @@
         <v>51</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>33</v>
@@ -14370,7 +14370,7 @@
         <v>355</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>33</v>
@@ -14528,7 +14528,7 @@
         <v>51</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>33</v>
@@ -14607,7 +14607,7 @@
         <v>31</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>33</v>
@@ -14686,7 +14686,7 @@
         <v>46</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>33</v>
@@ -14765,7 +14765,7 @@
         <v>333</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>33</v>
@@ -14923,7 +14923,7 @@
         <v>82</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>33</v>
@@ -15081,7 +15081,7 @@
         <v>133</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>33</v>
@@ -15239,7 +15239,7 @@
         <v>51</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>33</v>
@@ -15318,7 +15318,7 @@
         <v>104</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>33</v>
@@ -15397,7 +15397,7 @@
         <v>333</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>33</v>
@@ -15555,7 +15555,7 @@
         <v>51</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>33</v>
@@ -15634,7 +15634,7 @@
         <v>104</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>33</v>
@@ -15871,7 +15871,7 @@
         <v>32</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>33</v>
@@ -15950,7 +15950,7 @@
         <v>333</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>33</v>
@@ -16108,7 +16108,7 @@
         <v>289</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>33</v>
@@ -16187,7 +16187,7 @@
         <v>32</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>33</v>
@@ -16345,7 +16345,7 @@
         <v>31</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>33</v>
@@ -16503,7 +16503,7 @@
         <v>32</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I162" s="3" t="s">
         <v>33</v>
@@ -16582,7 +16582,7 @@
         <v>355</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>33</v>
@@ -16661,7 +16661,7 @@
         <v>51</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>33</v>
@@ -16819,7 +16819,7 @@
         <v>355</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>33</v>
@@ -16977,7 +16977,7 @@
         <v>31</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>33</v>
@@ -17135,7 +17135,7 @@
         <v>333</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>33</v>
@@ -17293,7 +17293,7 @@
         <v>289</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>33</v>
@@ -17372,7 +17372,7 @@
         <v>355</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>33</v>
@@ -17530,7 +17530,7 @@
         <v>32</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>33</v>
@@ -17688,7 +17688,7 @@
         <v>32</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>33</v>
@@ -17767,7 +17767,7 @@
         <v>51</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>33</v>
@@ -18241,7 +18241,7 @@
         <v>31</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>33</v>
@@ -18873,7 +18873,7 @@
         <v>355</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>33</v>
@@ -18952,7 +18952,7 @@
         <v>32</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>33</v>
@@ -19031,7 +19031,7 @@
         <v>32</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>33</v>
@@ -19110,7 +19110,7 @@
         <v>333</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>33</v>
@@ -19189,7 +19189,7 @@
         <v>51</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I196" s="3" t="s">
         <v>33</v>
@@ -19268,7 +19268,7 @@
         <v>32</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>33</v>
@@ -19663,7 +19663,7 @@
         <v>51</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I202" s="3" t="s">
         <v>33</v>
@@ -19979,7 +19979,7 @@
         <v>45</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>33</v>
@@ -20137,7 +20137,7 @@
         <v>31</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>33</v>
@@ -20216,7 +20216,7 @@
         <v>355</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>33</v>
@@ -20295,7 +20295,7 @@
         <v>104</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>33</v>
@@ -20611,7 +20611,7 @@
         <v>133</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>33</v>
@@ -20690,7 +20690,7 @@
         <v>333</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>33</v>
@@ -20904,7 +20904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>17532</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>333</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>33</v>
@@ -21164,7 +21164,7 @@
         <v>51</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>33</v>
@@ -21322,7 +21322,7 @@
         <v>51</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>33</v>
@@ -21401,7 +21401,7 @@
         <v>32</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>33</v>
@@ -21480,7 +21480,7 @@
         <v>32</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>33</v>
@@ -21559,7 +21559,7 @@
         <v>104</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>33</v>
@@ -21638,7 +21638,7 @@
         <v>32</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>33</v>
@@ -21717,7 +21717,7 @@
         <v>744</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I228" s="3" t="s">
         <v>33</v>
@@ -22586,7 +22586,7 @@
         <v>32</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>33</v>
@@ -23376,7 +23376,7 @@
         <v>216</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>33</v>
@@ -23771,7 +23771,7 @@
         <v>51</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I254" s="3" t="s">
         <v>33</v>
@@ -23850,7 +23850,7 @@
         <v>32</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I255" s="3" t="s">
         <v>33</v>
@@ -24087,7 +24087,7 @@
         <v>825</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I258" s="3" t="s">
         <v>33</v>
@@ -24166,7 +24166,7 @@
         <v>31</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I259" s="3" t="s">
         <v>33</v>
@@ -24324,7 +24324,7 @@
         <v>333</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I261" s="3" t="s">
         <v>33</v>
@@ -24640,7 +24640,7 @@
         <v>31</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I265" s="3" t="s">
         <v>33</v>
@@ -24719,7 +24719,7 @@
         <v>51</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I266" s="3" t="s">
         <v>33</v>
@@ -24798,7 +24798,7 @@
         <v>333</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I267" s="3" t="s">
         <v>33</v>
@@ -25114,7 +25114,7 @@
         <v>104</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I271" s="3" t="s">
         <v>33</v>
@@ -25351,7 +25351,7 @@
         <v>289</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I274" s="3" t="s">
         <v>33</v>
@@ -25430,7 +25430,7 @@
         <v>32</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I275" s="3" t="s">
         <v>33</v>
@@ -25509,7 +25509,7 @@
         <v>51</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I276" s="3" t="s">
         <v>33</v>
@@ -25667,7 +25667,7 @@
         <v>355</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I278" s="3" t="s">
         <v>33</v>
@@ -25825,7 +25825,7 @@
         <v>333</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I280" s="3" t="s">
         <v>33</v>
@@ -25904,7 +25904,7 @@
         <v>51</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I281" s="3" t="s">
         <v>33</v>
@@ -26062,7 +26062,7 @@
         <v>82</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>33</v>
@@ -26220,7 +26220,7 @@
         <v>32</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>33</v>
@@ -26299,7 +26299,7 @@
         <v>104</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>33</v>
@@ -26378,7 +26378,7 @@
         <v>104</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>33</v>
@@ -26457,7 +26457,7 @@
         <v>32</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I288" s="3" t="s">
         <v>33</v>
@@ -26615,7 +26615,7 @@
         <v>51</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I290" s="3" t="s">
         <v>33</v>
@@ -26694,7 +26694,7 @@
         <v>32</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I291" s="3" t="s">
         <v>33</v>
@@ -27010,7 +27010,7 @@
         <v>51</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I295" s="3" t="s">
         <v>33</v>
@@ -27247,7 +27247,7 @@
         <v>333</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I298" s="3" t="s">
         <v>33</v>
@@ -27405,7 +27405,7 @@
         <v>133</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I300" s="3" t="s">
         <v>33</v>
@@ -27721,7 +27721,7 @@
         <v>32</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I304" s="3" t="s">
         <v>33</v>
@@ -28037,7 +28037,7 @@
         <v>333</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I308" s="3" t="s">
         <v>33</v>
@@ -28353,7 +28353,7 @@
         <v>125</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I312" s="3" t="s">
         <v>33</v>
@@ -28432,7 +28432,7 @@
         <v>51</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I313" s="3" t="s">
         <v>33</v>
@@ -28511,7 +28511,7 @@
         <v>355</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I314" s="3" t="s">
         <v>33</v>
@@ -28590,7 +28590,7 @@
         <v>82</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I315" s="3" t="s">
         <v>33</v>
@@ -28669,7 +28669,7 @@
         <v>82</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I316" s="3" t="s">
         <v>33</v>
@@ -28985,7 +28985,7 @@
         <v>51</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I320" s="3" t="s">
         <v>33</v>
@@ -29064,7 +29064,7 @@
         <v>355</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I321" s="3" t="s">
         <v>33</v>
@@ -29222,7 +29222,7 @@
         <v>31</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I323" s="3" t="s">
         <v>33</v>
@@ -29301,7 +29301,7 @@
         <v>31</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I324" s="3" t="s">
         <v>33</v>
@@ -29696,7 +29696,7 @@
         <v>32</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I329" s="3" t="s">
         <v>33</v>
@@ -29933,7 +29933,7 @@
         <v>333</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I332" s="3" t="s">
         <v>33</v>
@@ -30012,7 +30012,7 @@
         <v>51</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I333" s="3" t="s">
         <v>33</v>
@@ -30226,7 +30226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>18726</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>333</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I336" s="3" t="s">
         <v>33</v>
@@ -30486,7 +30486,7 @@
         <v>51</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I339" s="3" t="s">
         <v>33</v>
@@ -30565,7 +30565,7 @@
         <v>355</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I340" s="3" t="s">
         <v>33</v>
@@ -30960,7 +30960,7 @@
         <v>32</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I345" s="3" t="s">
         <v>33</v>
@@ -31039,7 +31039,7 @@
         <v>32</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I346" s="3" t="s">
         <v>33</v>
@@ -31197,7 +31197,7 @@
         <v>32</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I348" s="3" t="s">
         <v>33</v>
@@ -31434,7 +31434,7 @@
         <v>32</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I351" s="3" t="s">
         <v>33</v>
@@ -31592,7 +31592,7 @@
         <v>421</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I353" s="3" t="s">
         <v>33</v>
@@ -32145,7 +32145,7 @@
         <v>31</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I360" s="3" t="s">
         <v>33</v>
@@ -32303,7 +32303,7 @@
         <v>133</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I362" s="3" t="s">
         <v>33</v>
@@ -32382,7 +32382,7 @@
         <v>104</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I363" s="3" t="s">
         <v>33</v>
@@ -32619,7 +32619,7 @@
         <v>333</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I366" s="3" t="s">
         <v>33</v>
@@ -32698,7 +32698,7 @@
         <v>32</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I367" s="3" t="s">
         <v>33</v>
@@ -32777,7 +32777,7 @@
         <v>32</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I368" s="3" t="s">
         <v>33</v>
@@ -32935,7 +32935,7 @@
         <v>32</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I370" s="3" t="s">
         <v>33</v>
@@ -33093,7 +33093,7 @@
         <v>825</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I372" s="3" t="s">
         <v>33</v>
@@ -33172,7 +33172,7 @@
         <v>31</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I373" s="3" t="s">
         <v>33</v>
@@ -33330,7 +33330,7 @@
         <v>333</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I375" s="3" t="s">
         <v>33</v>
@@ -33394,10 +33394,10 @@
         <v>27</v>
       </c>
       <c r="C376" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D376" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>1108</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>44</v>
